--- a/assets/Exercício 4 - Cartão de Crédito - TABELA.xlsx
+++ b/assets/Exercício 4 - Cartão de Crédito - TABELA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CURSOS PROGRAMAÇÃO\Lógica de Programação\CC50 - O Curso de Ciência da Computação de Harvard\Fundação Estudar na Prática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CURSOS PROGRAMAÇÃO\Lógica de Programação\CC50 - O Curso de Ciência da Computação de Harvard\GIT PATYFIL\cs50-cc50-harvard\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,16 +50,16 @@
     <t>SOMA PAR + SOMA ÍMPAR</t>
   </si>
   <si>
-    <t>Resto da divisão por zero</t>
-  </si>
-  <si>
     <t>CARTÃO VÁLIDO?</t>
   </si>
   <si>
     <t>Quantos dígitos tem?</t>
   </si>
   <si>
-    <t>Se &gt; 9 SOMAR dígitos (resto da div +1)</t>
+    <t>Se nº for &gt; 9 SOMAR dígitos (resto da div +1)</t>
+  </si>
+  <si>
+    <t>Resto da divisão inteira (/10)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="B1:T12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="T12" sqref="A1:T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="9">
         <f xml:space="preserve"> COUNT( B3:Q3 )</f>
@@ -687,12 +687,12 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="3">
-        <f t="shared" ref="E5:F5" si="9">2*F4</f>
+        <f t="shared" ref="F5" si="9">2*F4</f>
         <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:I5" si="10">2*H4</f>
+        <f t="shared" ref="H5" si="10">2*H4</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
@@ -762,7 +762,7 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="S6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -793,32 +793,32 @@
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:O8" si="18">C3</f>
+        <f t="shared" ref="C8" si="18">C3</f>
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4">
-        <f t="shared" ref="E8:O8" si="19">E3</f>
+        <f t="shared" ref="E8" si="19">E3</f>
         <v>3</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:O8" si="20">G3</f>
+        <f t="shared" ref="G8" si="20">G3</f>
         <v>0</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4">
-        <f t="shared" ref="I8:O8" si="21">I3</f>
+        <f t="shared" ref="I8" si="21">I3</f>
         <v>0</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="4">
-        <f t="shared" ref="K8:O8" si="22">K3</f>
+        <f t="shared" ref="K8" si="22">K3</f>
         <v>0</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4">
-        <f t="shared" ref="M8:O8" si="23">M3</f>
+        <f t="shared" ref="M8" si="23">M3</f>
         <v>0</v>
       </c>
       <c r="N8" s="6"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T11" s="2">
         <f>MOD(T10,10)</f>
@@ -864,7 +864,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T12" s="2" t="str">
         <f>IF(T11=0,"VÁLIDO","INVÁLIDO")</f>
